--- a/COMP6452/ass2/atams.xlsx
+++ b/COMP6452/ass2/atams.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\unsw\COMP6452\ass2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4371D162-EE4D-40D1-A590-0553DA50FF7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8417BCAF-6C8E-4982-B2E5-ADCC8F09539B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10536" xr2:uid="{AB515261-FB74-457A-A2CF-0EE9FA23985D}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10536" activeTab="1" xr2:uid="{AB515261-FB74-457A-A2CF-0EE9FA23985D}"/>
   </bookViews>
   <sheets>
     <sheet name="Public" sheetId="1" r:id="rId1"/>
     <sheet name="Private" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>System type</t>
   </si>
@@ -54,9 +53,6 @@
   </si>
   <si>
     <t>Integrity of reconciliation</t>
-  </si>
-  <si>
-    <t>Commerical confidentiality</t>
   </si>
   <si>
     <t>Customer list privacy</t>
@@ -84,20 +80,6 @@
 • How this deals with the risk: The is no list of customers stored anywhere on the blockchain. Customer authorisations are stored in individual blockchain accounts for each customer. The customer account does not store network information, but rather a hashed pair of home network id and home network customer account number. Just reading this information does not reveal the customer's home network, but when the customer uses a roaming network, a smart contract will broadcast this hash to all mobile network type blockchain accounts who then unencrypt it with their private key, and if they get a valid value, they send payment tokens to the roaming network. After this a link between home and roaming network is established and the roaming network is able to send customer usage data with subsequent token request messages directly to the home network.</t>
   </si>
   <si>
-    <t>Roaming customer authentication
-• Descriptions: The roaming network must authenticate a customer account with their home network in order to know whether they are a) a real customer and b) they have agreed to the roaming terms
-• Stimulus: The roaming network must know whether a customer's home network with honour the spend incured on it's network.
-• Response: Authentication is done off-chain. When a customer requests roaming services, the roaming network sends a request via a secure web API to the customer's home network, and receives a response of whether this customer is authorised to roam.
-• How this deals with the risk: This deals with the risk by not storing customer authentication data on-chain. Customer authentication must happen on an as-needed basis. The mobile networks are then able to monitor unusual request calls to their API and identify bad behaviour.</t>
-  </si>
-  <si>
-    <t>Customer network usage activity and payment amounts secure and verifiable by home network
-• Description
-• Stimulus
-• Response
-• Reasoning why architecture deals with the risk</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sending roaming customer usage
 • Description: The main volumes of information shared between networks come from sharing of CDR data between networks. 
 • Stimulus: The home and roaming mobile networks must exchange CDR information about the roaming customer.
@@ -105,20 +87,6 @@
 • Reasoning why architecture deals with the risk: This allows for secure transfer of large volumes of CDR with minimal impact to the capacity of the blockchain, while also allowing for these records to be validated against the hash values on chain by signing the record messages sent off-chain with the roaming network's public key, and matching this to hash value on the blockchain. </t>
   </si>
   <si>
-    <t>Sending roaming customer usage
-• Description: The main volumes of information shared between networks come from sharing of CDR data between networks. 
-• Stimulus: The home and roaming mobile networks must exchange CDR information about the roaming customer.
-• Response: Hashed CDR information is updated on the blockchain along with the token request transaction.
-• Reasoning why architecture deals with the risk: This requires a reasonably large volume of data to be recorded on the blockchain, but with a reasonable coding schema for CDR data, this should be of a scale that could fit into a half day or full day per customer token + CDR transaction. The transactions would be spaced throughout the day to distribute blockchain network load evenly. Due to this being a private network, a much higher rate of transactions per second can be achieved than on a public network like ethereum, so a multiday reconciliation of individual customer accounts is achieveable.</t>
-  </si>
-  <si>
-    <t>Customer personal information
-• Description: Customer's need to reveal some personal information like mobile number for authentication and CDR activity when using roaming networks
-• Stimulus: The customer's personal information, including mobile activity should be kept confidential and only be accessible to roaming counterparties on an as-needed basis
-• Response: Store very little information about the customer on the blockchain - only what is needed for the functional aspect of the architecture
-• Reasoning why architecture deals with the risk: The customer blockchain account type stores some personal information in it's state, however this is hashed and revealed only to roaming counterparties for usage and authentication. Usage data is exchange off-chain in this architecture, so this is not a concern as it is sent directly between counterparties over secure http.</t>
-  </si>
-  <si>
     <t>Customer personal information
 • Description: Customer's need to reveal some personal information like mobile number for authentication and CDR activity when using roaming networks
 • Stimulus: The customer's personal information, including mobile activity should be kept confidential and only be accessible to roaming counterparties on an as-needed basis
@@ -155,6 +123,44 @@
 • Stimulus: Speed of authentication roaming customer for network usage needs to be relatively quick, so there is minimal delay from when the customer connects to the roaming network to when they are able to use the services.
 • Response: The customer's roaming authorisation is requested from the home network and stored in the state of the customer's blockchain account. This is stored with a relatively short expiry window (could be a day) and must be updated regularly to allow for fast changes by the home network.
 • Reasoning why architecture deals with the risk: Since the authorisation is stored in the blockchain, the roaming network may quickly check the customer's roaming authorisation when they request to sign up for a plan. This is then checked periodically during the time the customer is roaming.</t>
+  </si>
+  <si>
+    <t>Commercial confidentiality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer network usage activity
+• Description: Customers engage in activity on the roaming network and incur a cost for the services they use. The home network must then respond for a token request based on their customer's usage from the roaming counterparty with tokens to the value of this usage.
+• Stimulus: Customer network usage activity and payment amounts must be secure and verifiable by home network
+• Response: The application running on the customer's mobile device records usage data, and sends this in batches to the customer's home network via secure http. A record - as a transaction id hash - is stored on the customer's blockchain account state. 
+• Reasoning why architecture deals with the risk: Together with the customer plan information also stored in teh customer's blockchain account, the home network is able to verify usage. Discrepancies between the customer's usage reading and that recorded by the roaming network can be dealt with off-chain between the counterparties, but discrepancies are not expected as the call and data throughput go through the phone and are recorded. Usage cost information is also recorded in the plan information on-chain. </t>
+  </si>
+  <si>
+    <t>Customer personal information
+• Description: Customer's need to reveal some personal information like mobile number for authentication and CDR activity when using roaming networks
+• Stimulus: The customer's personal information, including mobile activity should be kept confidential and only be accessible to roaming counterparties on an as-needed basis
+• Response: Store very little information about the customer on the blockchain - only what is needed for the functional aspect of the architecture
+• Reasoning why architecture deals with the risk: The customer blockchain account type stores some personal information in its state, however this is hashed and revealed only to roaming counterparties for usage and authentication. Usage data is exchange off-chain in this architecture, so this is not a concern as it is sent directly between counterparties over secure http.</t>
+  </si>
+  <si>
+    <t>Customer network usage activity
+• Description: Customers engage in activity on the roaming network and incur a cost for the services they use. The home network must then respond for a token request based on their customer's usage from the roaming counterparty with tokens to the value of this usage.
+• Stimulus: Customer network usage activity and payment amounts must be secure and verifiable by home network
+• Response: Customer usage data is recorded on-chain by the roaming network blockchain account. 
+• Reasoning why architecture deals with the risk: This architecture ensures that the actual usage recorded by the provider network is verifiable by both counterparties. This means that the record is encrypted with the home network's public key. There is thus an immutable record of CDR information, as well as a record of the roaming agreement, including rates, stored on-chain. These data allow for the integrity of usage and payment reconciliation to be maintained.</t>
+  </si>
+  <si>
+    <t>Sending roaming customer usage
+• Description: The main volumes of information shared between networks come from sharing of CDR data between networks. 
+• Stimulus: The home and roaming mobile networks must exchange CDR information about the roaming customer.
+• Response: Hashed CDR information is updated on the blockchain along with the token request transaction.
+• Reasoning why architecture deals with the risk: This requires a reasonably large volume of data to be recorded on the blockchain, but with a reasonable coding schema for CDR data, this should be of a scale that could fit into a half day or full day per customer token + CDR transaction. The transactions would be spaced throughout the day to distribute blockchain network load evenly. Due to this being a private network, a much higher rate of transactions per second can be achieved than on a public network like ethereum, so a multiday reconciliation of individual customer accounts is achievable.</t>
+  </si>
+  <si>
+    <t>Roaming customer authentication
+• Descriptions: The roaming network must authenticate a customer account with their home network in order to know whether they are a) a real customer and b) they have agreed to the roaming terms
+• Stimulus: The roaming network must know whether a customer's home network with honour the spend incurred on its network.
+• Response: Authentication is done off-chain. When a customer requests roaming services, the roaming network sends a request via a secure web API to the customer's home network, and receives a response of whether this customer is authorised to roam.
+• How this deals with the risk: This deals with the risk by not storing customer authentication data on-chain. Customer authentication must happen on an as-needed basis. The mobile networks are then able to monitor unusual request calls to their API and identify bad behaviour.</t>
   </si>
 </sst>
 </file>
@@ -620,10 +626,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4D47D7-D7E1-494A-BAB6-703A2DA30A79}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -655,23 +664,23 @@
         <v>4</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="158.4" x14ac:dyDescent="0.55000000000000004">
@@ -680,44 +689,44 @@
         <v>6</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="13"/>
       <c r="C6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="13"/>
       <c r="C7" s="15"/>
       <c r="D7" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="201.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="14"/>
       <c r="C8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -726,17 +735,20 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C6:C7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF3922E-5042-4507-8A73-DAD5D1CDD640}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -768,23 +780,23 @@
         <v>3</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="158.4" x14ac:dyDescent="0.55000000000000004">
@@ -793,44 +805,44 @@
         <v>6</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="13"/>
       <c r="C6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="13"/>
       <c r="C7" s="15"/>
       <c r="D7" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="172.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="14"/>
       <c r="C8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -839,7 +851,7 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C6:C7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>